--- a/data/helpdoc/DND/C_模组词条整合.xlsx
+++ b/data/helpdoc/DND/C_模组词条整合.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="18530" windowHeight="7270" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="龙后之影专长" sheetId="1" r:id="rId1"/>
@@ -1967,7 +1967,7 @@
 这个一尺高的小雕像由砂岩精美雕刻而成，描绘出一只在水中扭动、张开血盆大口的鲨鱼形象。一旦有任何微型海生动物在雕像的嘴边1尺内，这条鲨鱼就会突然浮现出生命并对其造成1点穿刺伤害。这条鲨鱼每个小时内只能这样造成一次伤害。</t>
   </si>
   <si>
-    <t>5e 魔宠群</t>
+    <t>魔宠群</t>
   </si>
   <si>
     <t/>
@@ -1989,7 +1989,7 @@
     <t>夸力许的失落实验室中的法术</t>
   </si>
   <si>
-    <t>5e 加德尔急速邮差</t>
+    <t>加德尔急速邮差</t>
   </si>
   <si>
     <t>加德尔急速邮差 Galder's Speedy Courier(夸力许的失落实验室)
@@ -2005,7 +2005,7 @@
 升环施法效应：当你使用8环法术位施放本法术时，你可以将箱子送往与你处在不同存在位面的生物。</t>
   </si>
   <si>
-    <t>5e 加德尔高塔术</t>
+    <t>加德尔高塔术</t>
   </si>
   <si>
     <t>加德尔高塔术 Galder's Tower(夸力许的失落实验室)
@@ -2028,7 +2028,7 @@
 升环施法效应：当你使用4环或更高法术位施放本法术时，使用的法术位每比3环高一环，召唤的塔就可以多一层。</t>
   </si>
   <si>
-    <t>5e 冷冻之指</t>
+    <t>冷冻之指</t>
   </si>
   <si>
     <t>冷冻一指</t>
@@ -2046,7 +2046,7 @@
 升环施法效应：当你使用2环或更高法术位施放本法术时，伤害就提升1d8。</t>
   </si>
   <si>
-    <t>5e 创造魔卫</t>
+    <t>创造魔卫</t>
   </si>
   <si>
     <t>创造魔卫 Create Magen（冰霜少女的雾凇）
@@ -3197,8 +3197,8 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.85" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="20" style="2" customWidth="1"/>
-    <col min="3" max="3" width="93.2407407407407" customWidth="1"/>
-    <col min="4" max="4" width="29.3518518518519" style="2" customWidth="1"/>
+    <col min="3" max="3" width="93.2363636363636" customWidth="1"/>
+    <col min="4" max="4" width="29.3545454545455" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -3320,10 +3320,10 @@
       <selection activeCell="A77" sqref="$A77:$XFD77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.7314814814815" customWidth="1"/>
-    <col min="3" max="3" width="122.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="122.254545454545" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:6">
@@ -4622,16 +4622,16 @@
   <sheetPr/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.6388888888889" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.4537037037037" style="2" customWidth="1"/>
-    <col min="3" max="3" width="93.2222222222222" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.3333333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.6363636363636" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.4545454545455" style="2" customWidth="1"/>
+    <col min="3" max="3" width="93.2181818181818" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.3363636363636" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -4839,9 +4839,9 @@
       <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88181818181818" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="114.185185185185" customWidth="1"/>
+    <col min="3" max="3" width="114.181818181818" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:6">
@@ -4969,13 +4969,13 @@
       <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.85" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88181818181818" defaultRowHeight="14.85" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="20.5462962962963" customWidth="1"/>
-    <col min="3" max="3" width="112.546296296296" customWidth="1"/>
+    <col min="1" max="1" width="20.5454545454545" customWidth="1"/>
+    <col min="3" max="3" width="112.545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="14.4" spans="1:6">
+    <row r="1" customFormat="1" ht="14" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="14.4" spans="1:3">
+    <row r="2" customFormat="1" ht="14" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>244</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="14.4" spans="1:3">
+    <row r="3" customFormat="1" ht="14" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>246</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="14.4" spans="1:3">
+    <row r="4" customFormat="1" ht="14" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>248</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="14.4" spans="1:3">
+    <row r="5" customFormat="1" ht="14" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>250</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="14.4" spans="1:3">
+    <row r="6" customFormat="1" ht="14" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>252</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="14.4" spans="1:3">
+    <row r="7" customFormat="1" ht="14" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>254</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="14.4" spans="1:3">
+    <row r="8" customFormat="1" ht="14" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>256</v>
       </c>
@@ -5058,17 +5058,17 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="14.4" spans="1:3">
+    <row r="9" customFormat="1" ht="14" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" customFormat="1" ht="14.4" spans="1:3">
+    <row r="10" customFormat="1" ht="14" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" customFormat="1" ht="14.4" spans="1:3">
+    <row r="11" customFormat="1" ht="14" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -5085,14 +5085,14 @@
   <sheetPr/>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88181818181818" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="17.2685185185185" customWidth="1"/>
-    <col min="3" max="3" width="109.546296296296" customWidth="1"/>
+    <col min="1" max="1" width="17.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="109.545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:6">
